--- a/Templates/Example/Организации.xlsx
+++ b/Templates/Example/Организации.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkDirectum\Tasks\old\TemplatesMainTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD682D2-B55F-4D02-9A16-524DF7F6F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Контрагенты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$W$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$X$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Наименование</t>
   </si>
@@ -192,29 +193,13 @@
     <t>г. Кельн</t>
   </si>
   <si>
-    <t>Загружен частично</t>
-  </si>
-  <si>
-    <t>08.02.2023</t>
-  </si>
-  <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Не найден Банк "БАНКИжевск". Наименование организации: "Ярко ООО".</t>
-  </si>
-  <si>
-    <t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH".</t>
+    <t>ИД во внешней системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -315,44 +300,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,41 +624,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.36328125" customWidth="1"/>
+    <col min="21" max="21" width="26.26953125" customWidth="1"/>
+    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -720,20 +716,23 @@
       <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -769,18 +768,13 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -814,18 +808,13 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -857,18 +846,13 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -906,18 +890,13 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -951,18 +930,13 @@
       <c r="S6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -996,19 +970,14 @@
       <c r="S7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W7"/>
+  <autoFilter ref="A1:X7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
